--- a/仕様書/チュートリアル.xlsx
+++ b/仕様書/チュートリアル.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFDFE84-51EF-408A-B711-D00A54AA37ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EFFD5-0B98-4224-80EF-AB241027697D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>開始時</t>
     <rPh sb="0" eb="2">
@@ -484,34 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真が取れれば射撃フェーズに移動時の演出を入れ次にフェード</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャゲキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>射撃フェーズ開始時の演出を入れる</t>
     <rPh sb="0" eb="2">
       <t>シャゲキ</t>
@@ -632,6 +604,90 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットをプレイヤーから奥のほうに出現させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aを押したら</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動できたら博士のテキストでＯＫじゃ！と言わせる</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回できたら博士のテキストでＯＫじゃ！と言わせる</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誘導できたらできたら博士のテキストでＯＫじゃ！と言わせる</t>
+    <rPh sb="0" eb="2">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真が取れれば博士のテキストでＯＫじゃ！を表示。射撃フェーズに移動時の演出を入れ次にフェード</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1435,7 +1491,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>まずジープの動かし方を覚えるのじゃ</a:t>
+            <a:t>まずジープの動かし方を覚える</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -8511,8 +8567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="F82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8564,6 +8620,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21" spans="1:10">
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="28" spans="1:10">
       <c r="J28" t="s">
         <v>12</v>
@@ -8595,6 +8656,11 @@
     <row r="36" spans="8:10">
       <c r="J36" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="J37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="8:10">
@@ -8668,9 +8734,24 @@
         <v>31</v>
       </c>
     </row>
+    <row r="67" spans="10:12">
+      <c r="L67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12">
+      <c r="L76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12">
+      <c r="L77" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="78" spans="10:12">
       <c r="L78" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="10:12">
@@ -8731,7 +8812,7 @@
     </row>
     <row r="89" spans="9:12">
       <c r="L89" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="9:12">
@@ -8746,37 +8827,37 @@
     </row>
     <row r="94" spans="9:12">
       <c r="I94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="9:12">
       <c r="I95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="9:12">
       <c r="I96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/チュートリアル.xlsx
+++ b/仕様書/チュートリアル.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EFFD5-0B98-4224-80EF-AB241027697D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9DBE59-6373-45DB-A849-7C7E9275609F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>開始時</t>
     <rPh sb="0" eb="2">
@@ -29,10 +29,6 @@
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロボット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -294,13 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロボットはちょっとずつ前進する</t>
-    <rPh sb="11" eb="13">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青い枠を出す</t>
     <rPh sb="0" eb="1">
       <t>アオ</t>
@@ -471,19 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>失敗したらロボットを置くから再出現</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>サイシュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>射撃フェーズ開始時の演出を入れる</t>
     <rPh sb="0" eb="2">
       <t>シャゲキ</t>
@@ -608,17 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロボットをプレイヤーから奥のほうに出現させる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Aを押したら</t>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動できたら博士のテキストでＯＫじゃ！と言わせる</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -658,7 +623,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真が取れれば博士のテキストでＯＫじゃ！を表示。射撃フェーズに移動時の演出を入れ次にフェード</t>
+    <t>ドローン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｙボタンで武器切り替え</t>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナイパーでドローンを撃ったらクリア</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aを押したらドローン出現</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真が取れれば博士のテキストでＯＫじゃ！を表示。次にフェード</t>
     <rPh sb="0" eb="2">
       <t>シャシン</t>
     </rPh>
@@ -671,23 +670,182 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="24" eb="25">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗したらロボットを奥から再出現</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイシュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンは移動しないようにする</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットがミサイルを発射</t>
+    <rPh sb="10" eb="12">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストを表示（ドローンに発見されるとミサイルを撃たれること　ダメージの説明　ダメージの説明のテキストの時ライフＵＩを点滅させる）</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットは停止させる</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の行動を表示</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットは停止させておく</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aを押したらテキストが進む</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←ダミーの弱点があることをここで伝える</t>
+    <rPh sb="5" eb="7">
+      <t>ジャクテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｙで武器を切り替えさせる</t>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の入力は受け付けないようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時にＯＫのＳＥを鳴らす</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット出現</t>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時点ではロボットはミサイルとドローン射出禁止</t>
+    <rPh sb="2" eb="4">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャシュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは新しい射撃フェーズに差し換える</t>
+    <rPh sb="3" eb="4">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>シャゲキ</t>
     </rPh>
-    <rPh sb="31" eb="33">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ツギ</t>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,6 +914,66 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0F505E-6C68-4BFB-8F09-549A74484FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66674" y="228600"/>
+          <a:ext cx="4714875" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -781,66 +999,6 @@
         <a:xfrm>
           <a:off x="44824" y="10600765"/>
           <a:ext cx="4701428" cy="2740959"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0F505E-6C68-4BFB-8F09-549A74484FD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66674" y="228600"/>
-          <a:ext cx="4714875" cy="2771775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1481,23 +1639,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロボットとの戦いでは足が大事じゃ</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>まずジープの動かし方を覚える</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2849,16 +2991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>620806</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>231962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>668431</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:colOff>267021</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>206187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2873,8 +3015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1987924" y="1643903"/>
-          <a:ext cx="731183" cy="500903"/>
+          <a:off x="2308092" y="1782535"/>
+          <a:ext cx="304480" cy="383081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2909,16 +3051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>145596</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2933,8 +3075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="5095875"/>
-          <a:ext cx="733425" cy="504825"/>
+          <a:off x="2186667" y="5388429"/>
+          <a:ext cx="262619" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5670,16 +5812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>598955</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
+      <xdr:colOff>217955</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>31374</xdr:rowOff>
+      <xdr:rowOff>72196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5694,8 +5836,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1966073" y="12180794"/>
-          <a:ext cx="712133" cy="333933"/>
+          <a:off x="2259026" y="12777108"/>
+          <a:ext cx="244688" cy="276302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6457,16 +6599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>654984</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137914</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>87403</xdr:rowOff>
+      <xdr:rowOff>73796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6481,8 +6623,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022102" y="15531352"/>
-          <a:ext cx="712133" cy="333933"/>
+          <a:off x="2178985" y="16192500"/>
+          <a:ext cx="243088" cy="291510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6994,8 +7136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17577547"/>
-          <a:ext cx="4701428" cy="3070412"/>
+          <a:off x="0" y="18277114"/>
+          <a:ext cx="4682218" cy="3195278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7691,15 +7833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>184897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>48183</xdr:rowOff>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7714,8 +7856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="19958797"/>
-          <a:ext cx="716616" cy="339536"/>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7752,13 +7894,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>203947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7774,8 +7916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21882847"/>
-          <a:ext cx="4714875" cy="3106831"/>
+          <a:off x="0" y="25431590"/>
+          <a:ext cx="4682218" cy="3195277"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7812,13 +7954,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7872,13 +8014,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>493620</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>233643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7940,13 +8082,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8000,13 +8142,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8060,13 +8202,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8120,13 +8262,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8180,13 +8322,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333937</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8242,13 +8384,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>121585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>102534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8294,6 +8436,2292 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>コントローラーの画像</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>50903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C21DAC-3067-4834-9035-9C9B312DF908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156732" y="24506465"/>
+          <a:ext cx="210911" cy="282224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEB275A-2CD8-4660-A751-0E208CC73B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22195971"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1937B80-2E0E-4616-842E-A9CE97B5164A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032782" y="19275879"/>
+          <a:ext cx="604157" cy="1157967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="正方形/長方形 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAA8B05-B7F2-48B7-A6B8-6F0A2B8DC5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="18334264"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38606281-2EAF-44B9-8090-2CE0BD1B0FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2564946" y="18541093"/>
+          <a:ext cx="604158" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4B7BBA-1EE5-4C1D-ADAC-14DE5F7BA3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="18945225"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>83004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>284070</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>59471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="正方形/長方形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8EB315-37CD-43E1-A0A2-3341F6DD41D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913164" y="22861361"/>
+          <a:ext cx="411977" cy="711253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410137</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F641138-3EB9-403C-A9AD-F64DFCBBBFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090494" y="20876079"/>
+          <a:ext cx="3572673" cy="556532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロボを射影機の前に誘導してレントゲンを写すのじゃ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>169210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5001FD-A7EC-43F5-9568-D8D9DB8B7113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="20743210"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D082E21-7B8D-45E9-B7AF-E2AC0AB640C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275756</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>128550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="矢印: 上 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8B2053-4432-425C-9EBF-F6042FDDE17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1306285" y="21621750"/>
+          <a:ext cx="1690900" cy="550371"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>284070</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>5042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="正方形/長方形 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924A8249-00C6-4B23-BA46-A322B7A79A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913164" y="18643146"/>
+          <a:ext cx="411977" cy="711253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405493</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>103014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BE5695-B220-40BF-A0BA-F271995310C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446564" y="23445107"/>
+          <a:ext cx="206829" cy="171050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555653</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>57871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44955C39-5EB9-40F6-B4B3-89E5F5227F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2596724" y="23159357"/>
+          <a:ext cx="2764490" cy="411657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>103014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508908</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>42424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線コネクタ 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55174D7-8515-4F2B-AC46-EC0C57353F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="154" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2217963" y="23616157"/>
+          <a:ext cx="332016" cy="1408981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262149</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>114942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="矢印: 上 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A722A1-9B3F-4298-995C-AC81BEA5DD3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1292678" y="25527000"/>
+          <a:ext cx="1690900" cy="550371"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E51C8-B13F-484C-8A61-D183DAF885E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="122464" y="775607"/>
+          <a:ext cx="1374321" cy="367394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次にすることの枠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>225239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C53A620-9203-483D-BFDD-201EC013B24F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1333500" y="884464"/>
+          <a:ext cx="4122964" cy="75561"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14280DBB-6526-42FB-B2FF-6D00B1376DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108857" y="312964"/>
+          <a:ext cx="1143000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB125785-EACC-4E13-9C94-99DBE2C19420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150179" y="285750"/>
+          <a:ext cx="571500" cy="421821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166006</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A608CEA-9A44-489A-819B-36A15FCA27B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="166006" y="4016829"/>
+          <a:ext cx="1766208" cy="636814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左スティックで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青いマーカーに移動しろ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100692</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="テキスト ボックス 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E2631C-28CE-46C6-B5D8-47B9EEAE66C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100692" y="7843156"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>緑色のマーカー二つを画面内にいれろ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146959</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>193220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="テキスト ボックス 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD9FAB0-40DE-4470-9B4D-7465C9943120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11138806"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>緑色のマーカー二つを画面内にいれろ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>193222</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>24491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340181</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C663C5-1FC3-4214-933F-69640A3D35A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="193222" y="14475277"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青い枠にビーコンを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>打ち込め</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146959</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>198663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="テキスト ボックス 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BB28B3-2AEA-4825-B7FD-55F3C8C1A6D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18492106"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青い枠にビーコンを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>打ち込め</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>29933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5802A283-7AE6-40A1-B311-6BD2D395C022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22563362"/>
+          <a:ext cx="1660071" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドローンを撃ち落とせ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93794DF1-CF79-4DEA-965F-0F397D050968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18277114"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD31106-6A95-4DFB-82B9-7F54F66E6C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032782" y="19275879"/>
+          <a:ext cx="604157" cy="1157967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="正方形/長方形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79444DF-4C52-4A6B-A013-4087240A151E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="18334264"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3378B77F-7F1A-4B4F-ABFE-AA4C3125806A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2564946" y="18541093"/>
+          <a:ext cx="604158" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D765FA1-4B03-4641-A8DF-F492A801E7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="18945225"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410137</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0548606-A99F-458D-A343-6A1C8DF31C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090494" y="20876079"/>
+          <a:ext cx="3572673" cy="556532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロボを射影機の前に誘導してレントゲンを写すのじゃ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>169210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="正方形/長方形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2729AD-793C-46A5-AC11-B6174E214AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="20743210"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="正方形/長方形 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3D5366-BF1F-4440-8EE1-D643E736E923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="テキスト ボックス 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADED0530-A5A7-4BE2-82BA-9BA2A7C48BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22655893"/>
+          <a:ext cx="1660071" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>Ｙで武器を切り替えろ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278478</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>240128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="矢印: 上 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BBE634-4AEA-4F63-9110-0F611379319D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1309007" y="26142043"/>
+          <a:ext cx="1690900" cy="550371"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8565,299 +10993,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="H2" t="s">
+    <row r="4" spans="1:10">
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1</v>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1"/>
+    <row r="10" spans="1:10">
+      <c r="H10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.5" customHeight="1"/>
-    <row r="10" spans="1:16">
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:10">
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="I18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="I20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="I21" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="I22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="8:10">
       <c r="J33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="8:10">
       <c r="J34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="8:10">
       <c r="J35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="8:10">
       <c r="J36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="J37" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="J38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="8:10">
       <c r="H43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="9:12">
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="9:12">
       <c r="I55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="9:12">
       <c r="I56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="9:12">
       <c r="J58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="9:12">
       <c r="L59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="9:12">
       <c r="L60" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="9:12">
       <c r="I61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="9:12">
       <c r="L62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="9:12">
       <c r="I63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="9:12">
       <c r="L64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="10:12">
       <c r="L65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="10:12">
       <c r="L66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="10:12">
       <c r="L67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="76" spans="10:12">
-      <c r="L76" t="s">
-        <v>33</v>
+    <row r="68" spans="10:12">
+      <c r="L68" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="10:12">
       <c r="L77" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="10:12">
       <c r="L78" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="10:12">
       <c r="L79" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="10:12">
       <c r="J80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14">
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14">
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="9:12">
-      <c r="L81" t="s">
-        <v>25</v>
+    <row r="83" spans="10:14">
+      <c r="L83" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="82" spans="9:12">
-      <c r="J82" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" t="s">
-        <v>26</v>
+    <row r="84" spans="10:14">
+      <c r="L84" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="83" spans="9:12">
-      <c r="L83" t="s">
+    <row r="85" spans="10:14">
+      <c r="L85" t="s">
         <v>32</v>
       </c>
+      <c r="N85" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="84" spans="9:12">
-      <c r="L84" t="s">
+    <row r="86" spans="10:14">
+      <c r="L86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="9:12">
-      <c r="L85" t="s">
+    <row r="87" spans="10:14">
+      <c r="L87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="9:12">
-      <c r="L86" t="s">
+    <row r="88" spans="10:14">
+      <c r="L88" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="9:12">
-      <c r="L87" t="s">
+    <row r="89" spans="10:14">
+      <c r="L89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14">
+      <c r="L90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14">
+      <c r="L93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14">
+      <c r="L94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14">
+      <c r="L95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14">
+      <c r="L96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12">
+      <c r="L97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12">
+      <c r="L113" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="9:12">
+      <c r="L114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="9:12">
+      <c r="I115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12">
+      <c r="L116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12">
+      <c r="L117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12">
+      <c r="L118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12">
+      <c r="L119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12">
+      <c r="L120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12">
+      <c r="L121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="9:12">
-      <c r="L88" t="s">
+    <row r="132" spans="9:9">
+      <c r="I132" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="9:12">
-      <c r="L89" t="s">
-        <v>51</v>
+    <row r="133" spans="9:9">
+      <c r="I133" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="90" spans="9:12">
-      <c r="L90" t="s">
+    <row r="134" spans="9:9">
+      <c r="I134" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="9:12">
-      <c r="L91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="9:12">
-      <c r="I94" t="s">
+    <row r="135" spans="9:9">
+      <c r="I135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="9:12">
-      <c r="I95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="9:12">
-      <c r="I96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" t="s">
+    <row r="136" spans="9:9">
+      <c r="I136" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="9:9">
-      <c r="I98" t="s">
+    <row r="137" spans="9:9">
+      <c r="I137" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="9:9">
-      <c r="I99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" t="s">
-        <v>45</v>
+    <row r="139" spans="9:9">
+      <c r="I139" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/チュートリアル.xlsx
+++ b/仕様書/チュートリアル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9DBE59-6373-45DB-A849-7C7E9275609F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F26A0-7F72-4715-96E5-098EEA2D1234}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>開始時</t>
     <rPh sb="0" eb="2">
@@ -846,6 +846,30 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機</t>
+    <rPh sb="0" eb="2">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博士のテキストに合わせてＵＩを点滅させる</t>
+    <rPh sb="0" eb="2">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8527,8 +8551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22195971"/>
-          <a:ext cx="4682218" cy="3195278"/>
+          <a:off x="0" y="27584400"/>
+          <a:ext cx="4682218" cy="3195277"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9387,8 +9411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1292678" y="25527000"/>
-          <a:ext cx="1690900" cy="550371"/>
+          <a:off x="1292678" y="30915429"/>
+          <a:ext cx="1690900" cy="550370"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -10065,8 +10089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22563362"/>
-          <a:ext cx="1660071" cy="323851"/>
+          <a:off x="0" y="27951790"/>
+          <a:ext cx="1660071" cy="323852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10711,6 +10735,1211 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC0F119-D19B-42C8-A1FE-CE3A622AE3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1213757" y="136071"/>
+          <a:ext cx="4283529" cy="200747"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658586</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71479</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線矢印コネクタ 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67F1A11-311F-4CCA-AD74-07190F794DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4740729" y="489857"/>
+          <a:ext cx="756557" cy="71479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>29933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="テキスト ボックス 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64953E5-9C07-4E66-A135-DFE8020F377A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22563362"/>
+          <a:ext cx="1660071" cy="323852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドローンを撃ち落とせ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>182333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="テキスト ボックス 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E0D3BE-F12A-4E08-89CD-0917B7F71B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="22715762"/>
+          <a:ext cx="1660071" cy="323852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドローンを撃ち落とせ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>89805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="テキスト ボックス 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35DAA07-27C7-415C-8A47-CEFE2F2A64AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="22868162"/>
+          <a:ext cx="1660071" cy="323852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドローンを撃ち落とせ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>46261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A820BD-D261-4ACF-A0CA-751E9E3BC79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13608" y="31642047"/>
+          <a:ext cx="1387927" cy="334738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>Ｙで照準を出す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>8161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1418B24-EBF6-4155-8FCE-00B9EF2C7E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32093804"/>
+          <a:ext cx="1673679" cy="604159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スティックで弱点選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>Ｘで発射</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262149</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="矢印: 上 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81F1C17-DA3B-4904-AB7D-CA65F50BDAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1292678" y="25527000"/>
+          <a:ext cx="1690900" cy="550370"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>237656</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>172092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="矢印: 上 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616E94E3-EB2C-4C40-B584-D0BD0B05D385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1268185" y="34891436"/>
+          <a:ext cx="1690900" cy="550370"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>203947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="正方形/長方形 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE3F2F-0D7C-45B7-9C47-D8838BD520B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31554804"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E301F0-52CE-462F-B1AC-9CB235C436CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023257" y="34216521"/>
+          <a:ext cx="2626179" cy="489858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493620</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>233643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="正方形/長方形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B25601-8F49-40F3-B4B0-192FBBFAF059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117271" y="32104693"/>
+          <a:ext cx="417420" cy="704450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="正方形/長方形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C75107F-B8B8-41EB-9D71-CDC449257568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3725636" y="32257093"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="正方形/長方形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32C6C05-4BA3-4193-8584-37C62A52EB8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2873829" y="31945489"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18CCF31-240B-4A62-AD1E-CC41232BB495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089932" y="31681511"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E1EC0A-AC46-4A8C-90E4-4F04F427E4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="32095168"/>
+          <a:ext cx="604157" cy="1151164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333937</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F98B38-EB65-44B2-93BD-73563DACA47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1014294" y="34000168"/>
+          <a:ext cx="3572673" cy="563336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おわり！閉廷！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>121585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>102534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="正方形/長方形 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE1D2F5-50E3-4496-8233-53AA7F4AE5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33921728"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>50903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="正方形/長方形 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F41ED2-DE5C-4660-B832-47C3299576D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156732" y="33568822"/>
+          <a:ext cx="210911" cy="282224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -10995,13 +12224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11011,24 +12240,37 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="2" spans="1:11">
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="I4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1"/>
-    <row r="10" spans="1:10">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1"/>
+    <row r="10" spans="1:11">
       <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="J15" t="s">
         <v>15</v>
       </c>

--- a/仕様書/チュートリアル.xlsx
+++ b/仕様書/チュートリアル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F26A0-7F72-4715-96E5-098EEA2D1234}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A1CF3-DAEB-465D-990E-D7088276F569}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>開始時</t>
     <rPh sb="0" eb="2">
@@ -373,89 +373,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロボがビーコンに移動したら一時停止</t>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>射影機を点滅させる</t>
-    <rPh sb="0" eb="2">
-      <t>シャエイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ａを入力されたら次のテキストを表示</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示後Ａを押されたら一時停止を解除</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロボットが射影機の目の間に来させる</t>
-    <rPh sb="5" eb="7">
-      <t>シャエイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -657,38 +577,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真が取れれば博士のテキストでＯＫじゃ！を表示。次にフェード</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハカセ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>失敗したらロボットを奥から再出現</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サイシュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドローンは移動しないようにする</t>
     <rPh sb="5" eb="7">
       <t>イドウ</t>
@@ -761,16 +649,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←ダミーの弱点があることをここで伝える</t>
-    <rPh sb="5" eb="7">
-      <t>ジャクテン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -870,6 +748,145 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト表示中射影機選択のカーソルを点滅</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aを押し手射影機を切り替えさせる</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト表示　　Aを押したらテキストが進む</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストを表示ここで射影機選択のカーソルを説明</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストを表示（射影機の説明）</t>
+    <rPh sb="8" eb="10">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆テキストを表示ここで射影機の上のアイコンを点滅</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のテキスト表示（ここで射影機の選択カーソルを点滅）</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のテキスト表示（奥の射影機を点滅させる）</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7918,13 +7935,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>203947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7978,13 +7995,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8038,13 +8055,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>493620</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>233643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8106,13 +8123,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8166,13 +8183,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8226,13 +8243,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8286,13 +8303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8346,13 +8363,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333937</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8408,13 +8425,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>121585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>102534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8469,13 +8486,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>115661</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>50903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8529,13 +8546,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8589,13 +8606,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8649,13 +8666,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8709,13 +8726,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8769,13 +8786,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8829,13 +8846,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>83004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>284070</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>59471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8897,13 +8914,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410137</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8959,13 +8976,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>169210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>150159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9020,13 +9037,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99332</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>211468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9211,13 +9228,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>405493</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>103014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9279,13 +9296,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>555653</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>57871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9332,13 +9349,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>103014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508908</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>42424</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9389,13 +9406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>262149</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>114942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10049,16 +10066,10 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>青い枠にビーコンを</a:t>
+            <a:t>射影機でロボットを撮影しろ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>打ち込め</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -10067,13 +10078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>29933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10138,13 +10149,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10198,13 +10209,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10258,13 +10269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10318,13 +10329,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10378,13 +10389,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10438,13 +10449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410137</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10500,13 +10511,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>169210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>150159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10561,13 +10572,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99332</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>211468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10621,13 +10632,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10691,15 +10702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:colOff>669471</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>220436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>278478</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>240128</xdr:rowOff>
+      <xdr:colOff>319299</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>36022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10714,7 +10725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1309007" y="26142043"/>
+          <a:off x="1349828" y="26672722"/>
           <a:ext cx="1690900" cy="550371"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -10861,13 +10872,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>29933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10931,22 +10942,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>182333</xdr:rowOff>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>46261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="テキスト ボックス 174">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E0D3BE-F12A-4E08-89CD-0917B7F71B14}"/>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A820BD-D261-4ACF-A0CA-751E9E3BC79D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10954,8 +10965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="22715762"/>
-          <a:ext cx="1660071" cy="323852"/>
+          <a:off x="13608" y="31642047"/>
+          <a:ext cx="1387927" cy="334738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10991,7 +11002,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ドローンを撃ち落とせ</a:t>
+            <a:t>Ｙで照準を出す</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -11002,22 +11013,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>89805</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>8161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>604157</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>168728</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="テキスト ボックス 176">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35DAA07-27C7-415C-8A47-CEFE2F2A64AD}"/>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1418B24-EBF6-4155-8FCE-00B9EF2C7E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11025,8 +11036,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="22868162"/>
-          <a:ext cx="1660071" cy="323852"/>
+          <a:off x="0" y="32093804"/>
+          <a:ext cx="1673679" cy="604159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11062,10 +11073,143 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ドローンを撃ち落とせ</a:t>
+            <a:t>スティックで弱点選択</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>Ｘで発射</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316577</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>210191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="矢印: 上 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81F1C17-DA3B-4904-AB7D-CA65F50BDAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1347106" y="25867178"/>
+          <a:ext cx="1690900" cy="550370"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>237656</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>172092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="矢印: 上 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616E94E3-EB2C-4C40-B584-D0BD0B05D385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1268185" y="34891436"/>
+          <a:ext cx="1690900" cy="550370"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -11073,22 +11217,1175 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>46261</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>203947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="正方形/長方形 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE3F2F-0D7C-45B7-9C47-D8838BD520B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31554804"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E301F0-52CE-462F-B1AC-9CB235C436CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023257" y="34216521"/>
+          <a:ext cx="2626179" cy="489858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493620</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>233643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="正方形/長方形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B25601-8F49-40F3-B4B0-192FBBFAF059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117271" y="32104693"/>
+          <a:ext cx="417420" cy="704450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="正方形/長方形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C75107F-B8B8-41EB-9D71-CDC449257568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3725636" y="32257093"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="正方形/長方形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32C6C05-4BA3-4193-8584-37C62A52EB8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2873829" y="31945489"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="テキスト ボックス 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A820BD-D261-4ACF-A0CA-751E9E3BC79D}"/>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18CCF31-240B-4A62-AD1E-CC41232BB495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089932" y="31681511"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E1EC0A-AC46-4A8C-90E4-4F04F427E4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="32095168"/>
+          <a:ext cx="604157" cy="1151164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333937</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F98B38-EB65-44B2-93BD-73563DACA47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1014294" y="34000168"/>
+          <a:ext cx="3572673" cy="563336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おわり！閉廷！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>121585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>102534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="正方形/長方形 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE1D2F5-50E3-4496-8233-53AA7F4AE5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33921728"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>50903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="正方形/長方形 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F41ED2-DE5C-4660-B832-47C3299576D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156732" y="33568822"/>
+          <a:ext cx="210911" cy="282224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4C7F4F-6E0C-434A-9DE2-8CB54F70D048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22195971"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>189140</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>239486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112940</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="正方形/長方形 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D1AA99-4A1C-4A34-9206-2F25C4290F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869497" y="23507700"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="正方形/長方形 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC492285-D0E4-49D2-A1BC-C7B916595205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="18334264"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="正方形/長方形 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237BD097-AA55-4040-9688-5B9BF3E6389D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2564946" y="18541093"/>
+          <a:ext cx="604158" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="正方形/長方形 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B694F0-0EFA-4A3B-8035-5E42F4179331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="18945225"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>415178</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>215713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="楕円 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA43BA5-B6D9-4AEA-AD59-40FF1F38FA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2456249" y="20054927"/>
+          <a:ext cx="684280" cy="436069"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410137</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="正方形/長方形 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32539D7A-4664-4D38-B9B4-81B62C515DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090494" y="20876079"/>
+          <a:ext cx="3572673" cy="556532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>169210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="正方形/長方形 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDEBE61-48E5-4149-9043-82F1656DBC0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="20743210"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="正方形/長方形 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7230F96F-6509-4985-B8ED-0476CA78F474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146959</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>198663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="テキスト ボックス 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECFD800-7324-45E7-B28F-8366486732E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11096,8 +12393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13608" y="31642047"/>
-          <a:ext cx="1387927" cy="334738"/>
+          <a:off x="0" y="18492106"/>
+          <a:ext cx="1507673" cy="566057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11133,7 +12430,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>Ｙで照準を出す</a:t>
+            <a:t>射影機の切り替え</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -11143,101 +12440,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>8161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="テキスト ボックス 180">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1418B24-EBF6-4155-8FCE-00B9EF2C7E9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="32093804"/>
-          <a:ext cx="1673679" cy="604159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スティックで弱点選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>Ｘで発射</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>262149</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>114941</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="矢印: 上 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81F1C17-DA3B-4904-AB7D-CA65F50BDAE7}"/>
+      <xdr:colOff>329291</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>659477</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>158485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="矢印: 上 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0608FC6-6EBE-4C72-86DE-BB5BDC169CB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11245,8 +12464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1292678" y="25527000"/>
-          <a:ext cx="1690900" cy="550370"/>
+          <a:off x="1690005" y="22141542"/>
+          <a:ext cx="1690901" cy="550372"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -11285,38 +12504,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>587828</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>111579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>237656</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>172092</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="矢印: 上 182">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616E94E3-EB2C-4C40-B584-D0BD0B05D385}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1268185" y="34891436"/>
-          <a:ext cx="1690900" cy="550370"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 46693"/>
-          </a:avLst>
-        </a:prstGeom>
+      <xdr:colOff>660107</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>120461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>664030</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="楕円 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3178737-A589-49BE-8423-DA2CF833D729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1340464" y="23143747"/>
+          <a:ext cx="684280" cy="426545"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11329,617 +12548,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>203947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="正方形/長方形 183">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE3F2F-0D7C-45B7-9C47-D8838BD520B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="31554804"/>
-          <a:ext cx="4682218" cy="3195278"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="正方形/長方形 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E301F0-52CE-462F-B1AC-9CB235C436CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1023257" y="34216521"/>
-          <a:ext cx="2626179" cy="489858"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>493620</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>233643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="正方形/長方形 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B25601-8F49-40F3-B4B0-192FBBFAF059}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2117271" y="32104693"/>
-          <a:ext cx="417420" cy="704450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="正方形/長方形 186">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C75107F-B8B8-41EB-9D71-CDC449257568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3725636" y="32257093"/>
-          <a:ext cx="604157" cy="1157968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="正方形/長方形 187">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32C6C05-4BA3-4193-8584-37C62A52EB8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2873829" y="31945489"/>
-          <a:ext cx="604157" cy="1157968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="正方形/長方形 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18CCF31-240B-4A62-AD1E-CC41232BB495}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1089932" y="31681511"/>
-          <a:ext cx="604157" cy="1157968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="正方形/長方形 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E1EC0A-AC46-4A8C-90E4-4F04F427E4C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="32095168"/>
-          <a:ext cx="604157" cy="1151164"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333937</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="正方形/長方形 190">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F98B38-EB65-44B2-93BD-73563DACA47B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1014294" y="34000168"/>
-          <a:ext cx="3572673" cy="563336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>おわり！閉廷！</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>121585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>102534</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="正方形/長方形 191">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE1D2F5-50E3-4496-8233-53AA7F4AE5E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="33921728"/>
-          <a:ext cx="966107" cy="715735"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コントローラーの画像</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>115661</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>50903</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="正方形/長方形 192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F41ED2-DE5C-4660-B832-47C3299576D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2156732" y="33568822"/>
-          <a:ext cx="210911" cy="282224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -12222,10 +12830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:H161"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12241,22 +12849,22 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="K2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="I3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="I4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12292,12 +12900,12 @@
     </row>
     <row r="21" spans="1:10">
       <c r="I21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="I22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -12335,12 +12943,12 @@
     </row>
     <row r="37" spans="8:10">
       <c r="J37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="8:10">
       <c r="J38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="8:10">
@@ -12375,7 +12983,7 @@
     </row>
     <row r="60" spans="9:12">
       <c r="L60" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="9:12">
@@ -12416,27 +13024,42 @@
     </row>
     <row r="67" spans="10:12">
       <c r="L67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="10:12">
       <c r="L68" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="L74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12">
+      <c r="L75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12">
+      <c r="L76" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="10:12">
       <c r="L77" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="10:12">
       <c r="L78" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="10:12">
       <c r="L79" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="10:12">
@@ -12447,12 +13070,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="10:14">
+    <row r="81" spans="10:12">
       <c r="L81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="10:14">
+    <row r="82" spans="10:12">
       <c r="J82" t="s">
         <v>27</v>
       </c>
@@ -12460,160 +13083,172 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="10:14">
+    <row r="83" spans="10:12">
       <c r="L83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="84" spans="10:14">
+    <row r="84" spans="10:12">
       <c r="L84" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="85" spans="10:14">
-      <c r="L85" t="s">
-        <v>32</v>
-      </c>
-      <c r="N85" t="s">
-        <v>59</v>
+    <row r="92" spans="10:12">
+      <c r="L92" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="86" spans="10:14">
-      <c r="L86" t="s">
-        <v>33</v>
+    <row r="93" spans="10:12">
+      <c r="L93" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="87" spans="10:14">
-      <c r="L87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="10:14">
-      <c r="L88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="10:14">
-      <c r="L89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="10:14">
-      <c r="L90" t="s">
+    <row r="94" spans="10:12">
+      <c r="L94" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="10:14">
-      <c r="L93" t="s">
-        <v>31</v>
+    <row r="95" spans="10:12">
+      <c r="L95" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="94" spans="10:14">
-      <c r="L94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="10:14">
-      <c r="L95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="10:14">
+    <row r="96" spans="10:12">
       <c r="L96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="12:12">
       <c r="L97" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="113" spans="9:12">
-      <c r="L113" t="s">
-        <v>63</v>
+    <row r="98" spans="12:12">
+      <c r="L98" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="114" spans="9:12">
-      <c r="L114" t="s">
-        <v>64</v>
+    <row r="99" spans="12:12">
+      <c r="L99" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="115" spans="9:12">
-      <c r="I115" t="s">
+    <row r="100" spans="12:12">
+      <c r="L100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12">
+      <c r="L114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12">
+      <c r="L115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12">
+      <c r="L116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12">
+      <c r="L117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12">
+      <c r="L118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="9:12">
+      <c r="L132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="9:12">
+      <c r="L133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="9:12">
+      <c r="I134" t="s">
+        <v>41</v>
+      </c>
+      <c r="L134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="9:12">
+      <c r="L135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="9:12">
+      <c r="L136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="9:12">
+      <c r="L137" t="s">
         <v>46</v>
       </c>
-      <c r="L115" t="s">
+    </row>
+    <row r="138" spans="9:12">
+      <c r="L138" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="9:12">
+      <c r="L139" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="9:12">
+      <c r="L140" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="9:12">
-      <c r="L116" t="s">
-        <v>49</v>
+    <row r="151" spans="9:9">
+      <c r="I151" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="117" spans="9:12">
-      <c r="L117" t="s">
-        <v>54</v>
+    <row r="152" spans="9:9">
+      <c r="I152" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="118" spans="9:12">
-      <c r="L118" t="s">
-        <v>53</v>
+    <row r="153" spans="9:9">
+      <c r="I153" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="119" spans="9:12">
-      <c r="L119" t="s">
-        <v>47</v>
+    <row r="154" spans="9:9">
+      <c r="I154" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="120" spans="9:12">
-      <c r="L120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="9:12">
-      <c r="L121" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="9:9">
-      <c r="I131" t="s">
+    <row r="155" spans="9:9">
+      <c r="I155" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="9:9">
-      <c r="I132" t="s">
+    <row r="156" spans="9:9">
+      <c r="I156" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="9:9">
-      <c r="I133" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="9:9">
-      <c r="I134" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="9:9">
-      <c r="I135" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="136" spans="9:9">
-      <c r="I136" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9">
-      <c r="I137" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="9:9">
-      <c r="I139" t="s">
-        <v>65</v>
+    <row r="158" spans="9:9">
+      <c r="I158" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
